--- a/library/library_J.PLAGGENBERG_07.01.19.xlsx
+++ b/library/library_J.PLAGGENBERG_07.01.19.xlsx
@@ -76,7 +76,7 @@
     <t xml:space="preserve">GAGTTG</t>
   </si>
   <si>
-    <t xml:space="preserve">E7760</t>
+    <t xml:space="preserve">E7420</t>
   </si>
   <si>
     <t xml:space="preserve">GCTTAGA</t>
@@ -231,7 +231,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -286,6 +286,13 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -329,7 +336,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -355,6 +362,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -385,8 +396,8 @@
   </sheetPr>
   <dimension ref="A1:Z49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2:L49"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F17" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2:K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -477,10 +488,11 @@
       <c r="J2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="7" t="b">
+      <c r="K2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -515,10 +527,11 @@
       <c r="J3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="7" t="b">
+      <c r="K3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -553,10 +566,11 @@
       <c r="J4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="7" t="b">
+      <c r="K4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -591,10 +605,11 @@
       <c r="J5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" s="7" t="b">
+      <c r="K5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -629,10 +644,11 @@
       <c r="J6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" s="7" t="b">
+      <c r="K6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -667,10 +683,11 @@
       <c r="J7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7" s="7" t="b">
+      <c r="K7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -678,7 +695,7 @@
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="3" t="n">
@@ -687,7 +704,7 @@
       <c r="D8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F8" s="3" t="n">
@@ -705,10 +722,11 @@
       <c r="J8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L8" s="7" t="b">
+      <c r="K8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -716,7 +734,7 @@
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="3" t="n">
@@ -725,7 +743,7 @@
       <c r="D9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F9" s="3" t="n">
@@ -743,10 +761,11 @@
       <c r="J9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L9" s="7" t="b">
+      <c r="K9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -754,7 +773,7 @@
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="3" t="n">
@@ -763,7 +782,7 @@
       <c r="D10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F10" s="3" t="n">
@@ -781,10 +800,11 @@
       <c r="J10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L10" s="7" t="b">
+      <c r="K10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -792,7 +812,7 @@
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="3" t="n">
@@ -801,7 +821,7 @@
       <c r="D11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F11" s="3" t="n">
@@ -819,10 +839,11 @@
       <c r="J11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L11" s="7" t="b">
+      <c r="K11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -830,7 +851,7 @@
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="3" t="n">
@@ -839,7 +860,7 @@
       <c r="D12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F12" s="3" t="n">
@@ -857,10 +878,11 @@
       <c r="J12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L12" s="7" t="b">
+      <c r="K12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -868,7 +890,7 @@
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C13" s="3" t="n">
@@ -877,7 +899,7 @@
       <c r="D13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F13" s="3" t="n">
@@ -895,10 +917,11 @@
       <c r="J13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L13" s="7" t="b">
+      <c r="K13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -933,10 +956,11 @@
       <c r="J14" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L14" s="7" t="b">
+      <c r="K14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -971,10 +995,11 @@
       <c r="J15" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L15" s="7" t="b">
+      <c r="K15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1009,10 +1034,11 @@
       <c r="J16" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L16" s="7" t="b">
+      <c r="K16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1047,10 +1073,11 @@
       <c r="J17" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L17" s="7" t="b">
+      <c r="K17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1085,10 +1112,11 @@
       <c r="J18" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="b">
+      <c r="K18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1123,10 +1151,11 @@
       <c r="J19" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L19" s="7" t="b">
+      <c r="K19" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1134,7 +1163,7 @@
       <c r="A20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="3" t="n">
@@ -1143,7 +1172,7 @@
       <c r="D20" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F20" s="3" t="n">
@@ -1161,10 +1190,11 @@
       <c r="J20" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L20" s="7" t="b">
+      <c r="K20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L20" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1172,7 +1202,7 @@
       <c r="A21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C21" s="3" t="n">
@@ -1181,7 +1211,7 @@
       <c r="D21" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F21" s="3" t="n">
@@ -1199,10 +1229,11 @@
       <c r="J21" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L21" s="7" t="b">
+      <c r="K21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L21" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1210,7 +1241,7 @@
       <c r="A22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C22" s="3" t="n">
@@ -1219,7 +1250,7 @@
       <c r="D22" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F22" s="3" t="n">
@@ -1237,10 +1268,11 @@
       <c r="J22" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L22" s="7" t="b">
+      <c r="K22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1248,7 +1280,7 @@
       <c r="A23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="3" t="n">
@@ -1257,7 +1289,7 @@
       <c r="D23" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F23" s="3" t="n">
@@ -1275,10 +1307,11 @@
       <c r="J23" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L23" s="7" t="b">
+      <c r="K23" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L23" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1286,7 +1319,7 @@
       <c r="A24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C24" s="3" t="n">
@@ -1295,7 +1328,7 @@
       <c r="D24" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F24" s="3" t="n">
@@ -1313,10 +1346,11 @@
       <c r="J24" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K24" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L24" s="7" t="b">
+      <c r="K24" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L24" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1324,7 +1358,7 @@
       <c r="A25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="3" t="n">
@@ -1333,7 +1367,7 @@
       <c r="D25" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F25" s="3" t="n">
@@ -1351,10 +1385,11 @@
       <c r="J25" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K25" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L25" s="7" t="b">
+      <c r="K25" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L25" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1389,10 +1424,11 @@
       <c r="J26" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K26" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L26" s="7" t="b">
+      <c r="K26" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L26" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1427,10 +1463,11 @@
       <c r="J27" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K27" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L27" s="7" t="b">
+      <c r="K27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L27" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1465,10 +1502,11 @@
       <c r="J28" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K28" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L28" s="7" t="b">
+      <c r="K28" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L28" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1503,10 +1541,11 @@
       <c r="J29" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K29" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L29" s="7" t="b">
+      <c r="K29" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L29" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1541,10 +1580,11 @@
       <c r="J30" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K30" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L30" s="7" t="b">
+      <c r="K30" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L30" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1579,10 +1619,11 @@
       <c r="J31" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K31" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L31" s="7" t="b">
+      <c r="K31" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L31" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1590,7 +1631,7 @@
       <c r="A32" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C32" s="3" t="n">
@@ -1599,7 +1640,7 @@
       <c r="D32" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E32" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F32" s="3" t="n">
@@ -1617,10 +1658,11 @@
       <c r="J32" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K32" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L32" s="7" t="b">
+      <c r="K32" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L32" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1628,7 +1670,7 @@
       <c r="A33" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C33" s="3" t="n">
@@ -1637,7 +1679,7 @@
       <c r="D33" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F33" s="3" t="n">
@@ -1655,10 +1697,11 @@
       <c r="J33" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K33" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L33" s="7" t="b">
+      <c r="K33" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L33" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1666,7 +1709,7 @@
       <c r="A34" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C34" s="3" t="n">
@@ -1675,7 +1718,7 @@
       <c r="D34" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E34" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F34" s="3" t="n">
@@ -1693,10 +1736,11 @@
       <c r="J34" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K34" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L34" s="7" t="b">
+      <c r="K34" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L34" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1704,7 +1748,7 @@
       <c r="A35" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C35" s="3" t="n">
@@ -1713,7 +1757,7 @@
       <c r="D35" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E35" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F35" s="3" t="n">
@@ -1731,10 +1775,11 @@
       <c r="J35" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K35" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L35" s="7" t="b">
+      <c r="K35" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L35" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1742,7 +1787,7 @@
       <c r="A36" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C36" s="3" t="n">
@@ -1751,7 +1796,7 @@
       <c r="D36" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E36" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F36" s="3" t="n">
@@ -1769,10 +1814,11 @@
       <c r="J36" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K36" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L36" s="7" t="b">
+      <c r="K36" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L36" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1780,7 +1826,7 @@
       <c r="A37" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C37" s="3" t="n">
@@ -1789,7 +1835,7 @@
       <c r="D37" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="E37" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F37" s="3" t="n">
@@ -1807,10 +1853,11 @@
       <c r="J37" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K37" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L37" s="7" t="b">
+      <c r="K37" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L37" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1845,10 +1892,11 @@
       <c r="J38" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K38" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L38" s="7" t="b">
+      <c r="K38" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L38" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1883,10 +1931,11 @@
       <c r="J39" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K39" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L39" s="7" t="b">
+      <c r="K39" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L39" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1921,10 +1970,11 @@
       <c r="J40" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K40" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L40" s="7" t="b">
+      <c r="K40" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L40" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1959,10 +2009,11 @@
       <c r="J41" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K41" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L41" s="7" t="b">
+      <c r="K41" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L41" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1997,10 +2048,11 @@
       <c r="J42" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K42" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L42" s="7" t="b">
+      <c r="K42" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L42" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -2035,10 +2087,11 @@
       <c r="J43" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K43" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L43" s="7" t="b">
+      <c r="K43" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L43" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -2046,7 +2099,7 @@
       <c r="A44" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C44" s="3" t="n">
@@ -2055,7 +2108,7 @@
       <c r="D44" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E44" s="8" t="s">
+      <c r="E44" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F44" s="3" t="n">
@@ -2073,10 +2126,11 @@
       <c r="J44" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K44" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L44" s="7" t="b">
+      <c r="K44" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L44" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -2084,7 +2138,7 @@
       <c r="A45" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C45" s="3" t="n">
@@ -2093,7 +2147,7 @@
       <c r="D45" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E45" s="8" t="s">
+      <c r="E45" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F45" s="3" t="n">
@@ -2111,10 +2165,11 @@
       <c r="J45" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K45" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L45" s="7" t="b">
+      <c r="K45" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L45" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -2122,7 +2177,7 @@
       <c r="A46" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C46" s="3" t="n">
@@ -2131,7 +2186,7 @@
       <c r="D46" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E46" s="8" t="s">
+      <c r="E46" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F46" s="3" t="n">
@@ -2149,10 +2204,11 @@
       <c r="J46" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K46" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L46" s="7" t="b">
+      <c r="K46" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L46" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -2160,7 +2216,7 @@
       <c r="A47" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C47" s="3" t="n">
@@ -2169,7 +2225,7 @@
       <c r="D47" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E47" s="8" t="s">
+      <c r="E47" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F47" s="3" t="n">
@@ -2187,10 +2243,11 @@
       <c r="J47" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K47" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L47" s="7" t="b">
+      <c r="K47" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L47" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -2198,7 +2255,7 @@
       <c r="A48" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C48" s="3" t="n">
@@ -2207,7 +2264,7 @@
       <c r="D48" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E48" s="8" t="s">
+      <c r="E48" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F48" s="3" t="n">
@@ -2225,10 +2282,11 @@
       <c r="J48" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K48" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L48" s="7" t="b">
+      <c r="K48" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L48" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -2236,7 +2294,7 @@
       <c r="A49" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C49" s="3" t="n">
@@ -2245,7 +2303,7 @@
       <c r="D49" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E49" s="8" t="s">
+      <c r="E49" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F49" s="3" t="n">
@@ -2263,10 +2321,11 @@
       <c r="J49" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K49" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L49" s="7" t="b">
+      <c r="K49" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L49" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>

--- a/library/library_J.PLAGGENBERG_07.01.19.xlsx
+++ b/library/library_J.PLAGGENBERG_07.01.19.xlsx
@@ -396,8 +396,8 @@
   </sheetPr>
   <dimension ref="A1:Z49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F17" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2:K49"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2:L49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -491,8 +491,7 @@
       <c r="K2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L2" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -530,8 +529,7 @@
       <c r="K3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L3" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -569,8 +567,7 @@
       <c r="K4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L4" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -608,8 +605,7 @@
       <c r="K5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L5" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -647,8 +643,7 @@
       <c r="K6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L6" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -686,8 +681,7 @@
       <c r="K7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L7" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -725,8 +719,7 @@
       <c r="K8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L8" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -764,8 +757,7 @@
       <c r="K9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L9" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -803,8 +795,7 @@
       <c r="K10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L10" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -842,8 +833,7 @@
       <c r="K11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L11" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -881,8 +871,7 @@
       <c r="K12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L12" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -920,8 +909,7 @@
       <c r="K13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L13" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L13" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -959,8 +947,7 @@
       <c r="K14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L14" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L14" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -998,8 +985,7 @@
       <c r="K15" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L15" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L15" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1037,8 +1023,7 @@
       <c r="K16" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L16" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L16" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1076,8 +1061,7 @@
       <c r="K17" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L17" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L17" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1115,8 +1099,7 @@
       <c r="K18" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L18" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L18" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1154,8 +1137,7 @@
       <c r="K19" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L19" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L19" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1193,8 +1175,7 @@
       <c r="K20" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L20" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L20" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1232,8 +1213,7 @@
       <c r="K21" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L21" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L21" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1271,8 +1251,7 @@
       <c r="K22" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L22" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L22" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1310,8 +1289,7 @@
       <c r="K23" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L23" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L23" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1349,8 +1327,7 @@
       <c r="K24" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L24" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L24" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1388,8 +1365,7 @@
       <c r="K25" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L25" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L25" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1427,8 +1403,7 @@
       <c r="K26" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L26" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L26" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1466,8 +1441,7 @@
       <c r="K27" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L27" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L27" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1505,8 +1479,7 @@
       <c r="K28" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L28" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L28" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1544,8 +1517,7 @@
       <c r="K29" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L29" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L29" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1583,8 +1555,7 @@
       <c r="K30" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L30" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L30" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1622,8 +1593,7 @@
       <c r="K31" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L31" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L31" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1661,8 +1631,7 @@
       <c r="K32" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L32" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L32" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1700,8 +1669,7 @@
       <c r="K33" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L33" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L33" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1739,8 +1707,7 @@
       <c r="K34" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L34" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L34" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1778,8 +1745,7 @@
       <c r="K35" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L35" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L35" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1817,8 +1783,7 @@
       <c r="K36" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L36" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L36" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1856,8 +1821,7 @@
       <c r="K37" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L37" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L37" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1895,8 +1859,7 @@
       <c r="K38" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L38" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L38" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1934,8 +1897,7 @@
       <c r="K39" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L39" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L39" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1973,8 +1935,7 @@
       <c r="K40" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L40" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L40" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2012,8 +1973,7 @@
       <c r="K41" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L41" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L41" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2051,8 +2011,7 @@
       <c r="K42" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L42" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L42" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2090,8 +2049,7 @@
       <c r="K43" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L43" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L43" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2129,8 +2087,7 @@
       <c r="K44" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L44" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L44" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2168,8 +2125,7 @@
       <c r="K45" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L45" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L45" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2207,8 +2163,7 @@
       <c r="K46" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L46" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L46" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2246,8 +2201,7 @@
       <c r="K47" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L47" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L47" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2285,8 +2239,7 @@
       <c r="K48" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L48" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L48" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2324,8 +2277,7 @@
       <c r="K49" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L49" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L49" s="8" t="b">
         <v>0</v>
       </c>
     </row>

--- a/library/library_J.PLAGGENBERG_07.01.19.xlsx
+++ b/library/library_J.PLAGGENBERG_07.01.19.xlsx
@@ -76,7 +76,7 @@
     <t xml:space="preserve">GAGTTG</t>
   </si>
   <si>
-    <t xml:space="preserve">E7420</t>
+    <t xml:space="preserve">E7420L</t>
   </si>
   <si>
     <t xml:space="preserve">GCTTAGA</t>
@@ -396,8 +396,8 @@
   </sheetPr>
   <dimension ref="A1:Z49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2:L49"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2:K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -491,7 +491,8 @@
       <c r="K2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="8" t="b">
+      <c r="L2" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -529,7 +530,8 @@
       <c r="K3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="8" t="b">
+      <c r="L3" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -567,7 +569,8 @@
       <c r="K4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="8" t="b">
+      <c r="L4" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -605,7 +608,8 @@
       <c r="K5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="8" t="b">
+      <c r="L5" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -643,7 +647,8 @@
       <c r="K6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="8" t="b">
+      <c r="L6" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -681,7 +686,8 @@
       <c r="K7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="8" t="b">
+      <c r="L7" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -719,7 +725,8 @@
       <c r="K8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="8" t="b">
+      <c r="L8" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -757,7 +764,8 @@
       <c r="K9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="8" t="b">
+      <c r="L9" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -795,7 +803,8 @@
       <c r="K10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="8" t="b">
+      <c r="L10" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -833,7 +842,8 @@
       <c r="K11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="8" t="b">
+      <c r="L11" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -871,7 +881,8 @@
       <c r="K12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="8" t="b">
+      <c r="L12" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -909,7 +920,8 @@
       <c r="K13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L13" s="8" t="b">
+      <c r="L13" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -947,7 +959,8 @@
       <c r="K14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L14" s="8" t="b">
+      <c r="L14" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -985,7 +998,8 @@
       <c r="K15" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L15" s="8" t="b">
+      <c r="L15" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1023,7 +1037,8 @@
       <c r="K16" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L16" s="8" t="b">
+      <c r="L16" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1061,7 +1076,8 @@
       <c r="K17" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L17" s="8" t="b">
+      <c r="L17" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1099,7 +1115,8 @@
       <c r="K18" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L18" s="8" t="b">
+      <c r="L18" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1137,7 +1154,8 @@
       <c r="K19" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L19" s="8" t="b">
+      <c r="L19" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1175,7 +1193,8 @@
       <c r="K20" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L20" s="8" t="b">
+      <c r="L20" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1213,7 +1232,8 @@
       <c r="K21" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L21" s="8" t="b">
+      <c r="L21" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1251,7 +1271,8 @@
       <c r="K22" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L22" s="8" t="b">
+      <c r="L22" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1289,7 +1310,8 @@
       <c r="K23" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L23" s="8" t="b">
+      <c r="L23" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1327,7 +1349,8 @@
       <c r="K24" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L24" s="8" t="b">
+      <c r="L24" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1365,7 +1388,8 @@
       <c r="K25" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L25" s="8" t="b">
+      <c r="L25" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1403,7 +1427,8 @@
       <c r="K26" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L26" s="8" t="b">
+      <c r="L26" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1441,7 +1466,8 @@
       <c r="K27" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L27" s="8" t="b">
+      <c r="L27" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1479,7 +1505,8 @@
       <c r="K28" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L28" s="8" t="b">
+      <c r="L28" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1517,7 +1544,8 @@
       <c r="K29" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L29" s="8" t="b">
+      <c r="L29" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1555,7 +1583,8 @@
       <c r="K30" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L30" s="8" t="b">
+      <c r="L30" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1593,7 +1622,8 @@
       <c r="K31" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L31" s="8" t="b">
+      <c r="L31" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1631,7 +1661,8 @@
       <c r="K32" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L32" s="8" t="b">
+      <c r="L32" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1669,7 +1700,8 @@
       <c r="K33" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L33" s="8" t="b">
+      <c r="L33" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1707,7 +1739,8 @@
       <c r="K34" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L34" s="8" t="b">
+      <c r="L34" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1745,7 +1778,8 @@
       <c r="K35" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L35" s="8" t="b">
+      <c r="L35" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1783,7 +1817,8 @@
       <c r="K36" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L36" s="8" t="b">
+      <c r="L36" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1821,7 +1856,8 @@
       <c r="K37" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L37" s="8" t="b">
+      <c r="L37" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1859,7 +1895,8 @@
       <c r="K38" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L38" s="8" t="b">
+      <c r="L38" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1897,7 +1934,8 @@
       <c r="K39" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L39" s="8" t="b">
+      <c r="L39" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1935,7 +1973,8 @@
       <c r="K40" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L40" s="8" t="b">
+      <c r="L40" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1973,7 +2012,8 @@
       <c r="K41" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L41" s="8" t="b">
+      <c r="L41" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -2011,7 +2051,8 @@
       <c r="K42" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L42" s="8" t="b">
+      <c r="L42" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -2049,7 +2090,8 @@
       <c r="K43" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L43" s="8" t="b">
+      <c r="L43" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -2087,7 +2129,8 @@
       <c r="K44" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L44" s="8" t="b">
+      <c r="L44" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -2125,7 +2168,8 @@
       <c r="K45" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L45" s="8" t="b">
+      <c r="L45" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -2163,7 +2207,8 @@
       <c r="K46" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L46" s="8" t="b">
+      <c r="L46" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -2201,7 +2246,8 @@
       <c r="K47" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L47" s="8" t="b">
+      <c r="L47" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -2239,7 +2285,8 @@
       <c r="K48" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L48" s="8" t="b">
+      <c r="L48" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -2277,7 +2324,8 @@
       <c r="K49" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L49" s="8" t="b">
+      <c r="L49" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
